--- a/emails_list.xlsx
+++ b/emails_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="22980" windowHeight="9552"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="22980" windowHeight="11400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,49 +14,67 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>Email</t>
+  </si>
   <si>
     <t>Subject</t>
   </si>
   <si>
+    <t>Body</t>
+  </si>
+  <si>
     <t>dijmarescucris100@gmail.com</t>
   </si>
   <si>
-    <t>Body</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Buna Cristina! In atasament gasesti linkurile joburilor gasite de robot</t>
-  </si>
-  <si>
-    <t>Joburi gasite de robot</t>
-  </si>
-  <si>
-    <t>Buna Stefan! In atasament gasesti linkurile joburilor gasite de robot</t>
-  </si>
-  <si>
-    <t>Buna Roxana! In atasament gasesti linkurile joburilor gasite de robot</t>
-  </si>
-  <si>
-    <t>roxana.enasoaie@s.unibuc.ro</t>
+    <t>roxanaenasoaie44@gmail.com</t>
+  </si>
+  <si>
+    <t>bobocstefan675@gmail.com</t>
+  </si>
+  <si>
+    <t>Email Proiect Nr1</t>
+  </si>
+  <si>
+    <t>Email Proiect Nr2</t>
+  </si>
+  <si>
+    <t>Email Proiect Nr3</t>
+  </si>
+  <si>
+    <t>Buna Cristina! Ai aici atasamentul cu joburi!</t>
+  </si>
+  <si>
+    <t>cristina.dijmarescu@s.unibuc.ro</t>
+  </si>
+  <si>
+    <t>Email Proiect Nr4</t>
   </si>
   <si>
     <t>stefan.boboc@s.unibuc.ro</t>
   </si>
   <si>
-    <t>cristina.dijmarescu@s.unibuc.ro</t>
-  </si>
-  <si>
-    <t>Buna Cristina Maria! In atasament gasesti linkurile joburilor gasite de robot</t>
+    <t>Email Proiect Nr5</t>
+  </si>
+  <si>
+    <t>Salutare iti las aici un atasament</t>
+  </si>
+  <si>
+    <t>Hei Stefan, sunt aici joburile</t>
+  </si>
+  <si>
+    <t>Yeyy, ai in email joburile.</t>
+  </si>
+  <si>
+    <t>Hei, cele mai tari joburi sunt aici.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,12 +94,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -108,11 +120,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -415,25 +426,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.44140625" customWidth="1"/>
-    <col min="2" max="2" width="51.88671875" customWidth="1"/>
-    <col min="3" max="3" width="51.44140625" customWidth="1"/>
+    <col min="1" max="1" width="30.109375" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" customWidth="1"/>
+    <col min="3" max="3" width="47.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -441,35 +452,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -477,19 +488,32 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A4" r:id="rId2"/>
-    <hyperlink ref="A5" r:id="rId3"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>